--- a/example_data/EPA/label_corrected/093182-00022-20180213_2018-12-10_110859.xlsx
+++ b/example_data/EPA/label_corrected/093182-00022-20180213_2018-12-10_110859.xlsx
@@ -1255,7 +1255,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
